--- a/finalData/Productfinal.xlsx
+++ b/finalData/Productfinal.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16092" xWindow="240" yWindow="12"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,11 +34,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -50,27 +45,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -99,15 +79,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -407,70 +384,71 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="18.109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="125.44140625"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Tweet</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Favorites</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Retweets</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Sentiment</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Material</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Category1</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Category2</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Category3</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>keyPhrases</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Irrelevent</t>
         </is>
@@ -479,22 +457,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-06-27 20:20:48</t>
+          <t>2019-06-24 18:40:26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RT @LittleJohn_MD: My Son brought me home a Japanese Codd fruit drink bottle. Never knew they still made the old Codd bottle. Fascinating w</t>
+          <t>Reusing packaging whenever possible is one simple way we can all make a difference. We make it especially easy with https://t.co/8na8uyMBzh</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8085362911224365</v>
+        <v>0.9514744281768799</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -510,32 +488,35 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['old Codd bottle', 'Japanese Codd fruit drink bottle', 'Son', 'LittleJohn', 'MD', 'RT', 'Fascinating w']</t>
+          <t>['simple way', 'packaging', 'difference']</t>
         </is>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-06-27 20:05:15</t>
+          <t>2019-06-24 18:25:26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>RT @DairiesMcqueens: How do you take your milk? With cereal? In tea or coffee? In a glass? Let us know! \n#milk #glass #glassbottle #bottle</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.8713886737823486</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -551,32 +532,35 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['milk', 'glassbottle', 'RT', 'DairiesMcqueens', 'tea', 'coffee', 'cereal']</t>
         </is>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-06-27 19:00:10</t>
+          <t>2019-06-24 15:06:02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>Excited to share the latest addition to my #etsy shop: Organic Woodland Cologne- Men or Women Cologne, Vegan, Roll https://t.co/nLddkerTZB</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.9230299592018127</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -592,32 +576,35 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['Women Cologne', 'Organic Woodland Cologne- Men', 'etsy shop', 'latest addition', 'Vegan', 'Roll']</t>
         </is>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-06-27 18:00:42</t>
+          <t>2019-06-24 11:58:03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shall we try this, plastic stinks bpa free or not and doesn't last long before needing replaced. #glassbottle https://t.co/zpHRbSuS2r</t>
+          <t>How do you take your milk? With cereal? In tea or coffee? In a glass? Let us know! \n#milk #glass #glassbottle https://t.co/NefHO22Gq8</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2411497533321381</v>
+        <v>0.8751068115234375</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -633,32 +620,35 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['plastic stinks bpa free', 'glassbottle']</t>
+          <t>['milk', 'glassbottle', 'tea', 'coffee', 'cereal']</t>
         </is>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-06-27 16:24:37</t>
+          <t>2019-06-24 06:15:52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>My Son brought me home a Japanese Codd fruit drink bottle. Never knew they still made the old Codd bottle. Fascinat https://t.co/zzY3GzMVb3</t>
+          <t>100ml high heel #glassbottle    #perfumeglassbottle    #uniqueperfumebottle    #specialglassperfumebottle https://t.co/VWrLEl7aoh</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.7552631497383118</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -674,32 +664,35 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['old Codd bottle', 'Japanese Codd fruit drink bottle', 'Son', 'Fascinat']</t>
+          <t>['perfumeglassbottle', 'uniqueperfumebottle', 'high heel', 'specialglassperfumebottle']</t>
         </is>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-06-27 15:15:24</t>
+          <t>2019-06-24 03:55:40</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lets make single-use a thing of the past. Stay hydrated with your Lifefactory water bottle on those hot summer day https://t.co/7tSj1m85kR</t>
+          <t>RT @chestnutcrochet: Sharing for Brenda Marsh on Etsy\n\nReally love this, from the Etsy shop PorcelainChinaArt. https://t.co/RdidXKMF6a #ets</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8530144095420837</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -715,32 +708,35 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Lifefactory water bottle', 'hot summer day', 'thing', 'past']</t>
+          <t>['Etsy shop PorcelainChinaArt', 'love', 'Brenda Marsh', 'chestnutcrochet']</t>
         </is>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-06-27 02:15:28</t>
+          <t>2019-06-23 12:39:13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Perrier/ 750ml12 /glassbottle https://t.co/STQxKgVFIT</t>
+          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.8706083297729492</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -756,32 +752,35 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Perrier', '750ml12', 'glassbottle']</t>
+          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
         </is>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-06-26 22:20:54</t>
+          <t>2019-06-23 11:56:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottl https://t.co/wG5a3pb3GI</t>
+          <t>Sharing for Brenda Marsh on Etsy\n\nReally love this, from the Etsy shop PorcelainChinaArt. https://t.co/RdidXKMF6a https://t.co/CUeKOdRvGe</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.92364501953125</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -797,32 +796,35 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottl', 'Avon Red Glass', 'etsy shop', 'latest addition']</t>
+          <t>['Etsy shop PorcelainChinaArt', 'love', 'Brenda Marsh']</t>
         </is>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-06-26 17:32:58</t>
+          <t>2019-06-23 04:32:45</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wednesday Market Day!! @freiheitvillag1 3pm-7pm\nAshly will have our NEW glass spray bottles in stock.  Grab one wit https://t.co/HGy3wy8m2j</t>
+          <t>Excited to share the latest addition to my #etsy shop: Rare glass bottle by Maddock's old English lavender water https://t.co/12zdM4WpZ2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.8708361387252808</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -838,32 +840,35 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['NEW glass spray bottles', 'nAshly', 'stock', 'freiheitvillag1', 'Market Day', 'wit']</t>
+          <t>['Rare glass bottle', "Maddock's old English lavender water", 'etsy shop', 'latest addition']</t>
         </is>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-06-26 14:57:54</t>
+          <t>2019-06-23 01:42:05</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Like if you are Excited! Oh Yeah\n--\n#Drink #Beer #Bottle #Label #Liqueur #Alcohol #Glassbottle #Distilledbeverage https://t.co/ZgwConGJrT</t>
+          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9866830110549927</v>
+        <v>0.8706083297729492</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -879,32 +884,35 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Label', 'Liqueur', 'Alcohol', 'Glassbottle', 'Beer', 'Drink', 'Distilledbeverage']</t>
+          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
         </is>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-06-26 02:15:28</t>
+          <t>2019-06-22 23:58:29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Perrier/ 750ml12 /glassbottle https://t.co/STQxKgVFIT</t>
+          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.8706083297729492</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -920,32 +928,35 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Perrier', '750ml12', 'glassbottle']</t>
+          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
         </is>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-06-25 21:27:36</t>
+          <t>2019-06-22 20:29:08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>0.8706083297729492</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -961,32 +972,35 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
         </is>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-06-25 18:53:37</t>
+          <t>2019-06-22 19:13:39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0.8706083297729492</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1002,32 +1016,35 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
         </is>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-06-25 18:34:33</t>
+          <t>2019-06-22 18:42:29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>@fitzyandwippa @MaryKayH188 @russellcrowe ...in glassbottle like https://t.co/nna7b4cchI</t>
+          <t>Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottl https://t.co/NnpRYZBSgW</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5</v>
+        <v>0.92364501953125</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1043,29 +1060,32 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['MaryKayH188', 'russellcrowe', 'fitzyandwippa', 'glassbottle']</t>
+          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottl', 'Avon Red Glass', 'etsy shop', 'latest addition']</t>
         </is>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-06-25 15:29:02</t>
+          <t>2019-06-21 21:42:18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+          <t>@mymilkman do you offer glass-bottle milk deliveries? Im looking for glass-bottled milk in Dublin-14 area so I can https://t.co/iqOniYhHIA</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0.5</v>
@@ -1084,36 +1104,39 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+          <t>['glass-bottled milk', 'glass-bottle milk deliveries', 'Dublin', 'area', 'Im', 'mymilkman']</t>
         </is>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-06-23 20:48:41</t>
+          <t>2019-06-24 12:39:52</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#glass #eye... https://t.co/xhZjDFHgNt (#bottle #glassbottle #nails #eyeball #shatter #animation #animatedgif)</t>
+          <t>RT @jamesmielke: I still dont understand how #plasticbottle is intended to be a selling point for @Snapple. As if more #plastic is meant t</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7720965147018433</v>
+        <v>0.167109340429306</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1125,36 +1148,39 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['eyeball', 'shatter', 'nails', 'animation', 'glassbottle', 'animatedgif']</t>
+          <t>['dont', 'selling point', 'RT', 'jamesmielke', 'Snapple', 'plasticbottle']</t>
         </is>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-06-23 12:39:13</t>
+          <t>2019-06-24 12:18:51</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>I still dont understand how #plasticbottle is intended to be a selling point for @Snapple. As if more #plastic is https://t.co/RNVm8pH0QZ</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.2013776302337646</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1166,36 +1192,39 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['selling point', 'plasticbottle', 'Snapple', 'dont']</t>
         </is>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-06-23 11:56:00</t>
+          <t>2019-06-24 11:25:30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sharing for Brenda Marsh on Etsy\n\nReally love this, from the Etsy shop PorcelainChinaArt. https://t.co/RdidXKMF6a https://t.co/CUeKOdRvGe</t>
+          <t>It does not take a few seconds to throw a #PlasticBottle, but it takes a long time for it to #Decompose. \nDitch the https://t.co/o0O8kNZQnJ</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.3036190271377563</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1207,36 +1236,39 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Etsy shop PorcelainChinaArt', 'love', 'Brenda Marsh']</t>
+          <t>['PlasticBottle', 'long time', 'seconds', 'nDitch']</t>
         </is>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-06-23 04:32:45</t>
+          <t>2019-06-24 10:45:11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Excited to share the latest addition to my #etsy shop: Rare glass bottle by Maddock's old English lavender water https://t.co/12zdM4WpZ2</t>
+          <t>Only a few minutes, you can make a shovel.\n#shovel #plasticbottle https://t.co/QfQBebmlYr</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8708361387252808</v>
+        <v>0.8193173408508301</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1248,22 +1280,25 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Rare glass bottle', "Maddock's old English lavender water", 'etsy shop', 'latest addition']</t>
+          <t>['shovel', 'plasticbottle', 'minutes']</t>
         </is>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019-06-23 02:15:28</t>
+          <t>2019-06-24 10:42:13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Perrier/ 750ml12 /glassbottle https://t.co/STQxKgVFIT</t>
+          <t>A plastic bottle can help you separate yolks from whites.\n#plasticbottle #eggseparate https://t.co/2xMHDngRlC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1273,11 +1308,11 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0.7559324502944946</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1289,36 +1324,39 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Perrier', '750ml12', 'glassbottle']</t>
+          <t>['separate yolks', 'whites', 'plasticbottle', 'plastic bottle', 'eggseparate']</t>
         </is>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019-06-23 01:42:05</t>
+          <t>2019-06-24 10:16:23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>RT @Makerhuang1: Founded in 2006, we have over 10-year experience in producing plastic bottles. Our workshop covers an area of nearly 7,000</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1330,22 +1368,25 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['year experience', 'plastic bottles', 'RT', 'Makerhuang1', 'workshop', 'area']</t>
         </is>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019-06-22 23:58:29</t>
+          <t>2019-06-24 09:35:31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1355,11 +1396,11 @@
         <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1371,36 +1412,39 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
         </is>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019-06-22 20:29:08</t>
+          <t>2019-06-24 09:16:53</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>Good and natural things are always free! Refill water in your bottle do not buy!\n\n\n\n\n#plasticfree https://t.co/JzKobF7Tq1</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.9735814332962036</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1412,22 +1456,25 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['natural things', 'Refill water', 'bottle', 'plasticfree']</t>
         </is>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019-06-22 19:13:39</t>
+          <t>2019-06-24 09:02:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RT @HollyOak4: Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottle https:/</t>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1437,11 +1484,11 @@
         <v>6</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8706083297729492</v>
+        <v>0.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1453,36 +1500,39 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottle https', 'Avon Red Glass', 'etsy shop', 'latest addition', 'HollyOak4', 'RT']</t>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
         </is>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019-06-22 18:42:29</t>
+          <t>2019-06-24 09:01:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Excited to share the latest addition to my #etsy shop: Perfume Bottle Fragrance Bottle, Avon Red Glass, Glass Bottl https://t.co/NnpRYZBSgW</t>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>0.92364501953125</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1494,36 +1544,39 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Perfume Bottle Fragrance Bottle', 'Glass Bottl', 'Avon Red Glass', 'etsy shop', 'latest addition']</t>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
         </is>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019-06-22 02:15:28</t>
+          <t>2019-06-24 09:00:24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Perrier/ 750ml12 /glassbottle https://t.co/STQxKgVFIT</t>
+          <t>Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, i https://t.co/9UemeBFsKu</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5</v>
+        <v>0.2493803203105927</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1535,36 +1588,39 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Perrier', '750ml12', 'glassbottle']</t>
+          <t>['plastic lasts', 'single piece', 'context']</t>
         </is>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019-06-21 21:42:18</t>
+          <t>2019-06-24 03:51:36</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>@mymilkman do you offer glass-bottle milk deliveries? Im looking for glass-bottled milk in Dublin-14 area so I can https://t.co/iqOniYhHIA</t>
+          <t>Founded in 2006, we have over 10-year experience in producing plastic bottles. Our workshop covers an area of nearl https://t.co/8fFzVNmXVq</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5</v>
+        <v>0.685232400894165</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1576,22 +1632,25 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['glass-bottled milk', 'glass-bottle milk deliveries', 'Dublin', 'area', 'Im', 'mymilkman']</t>
+          <t>['year experience', 'plastic bottles', 'workshop', 'area of nearl']</t>
         </is>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019-06-21 13:14:42</t>
+          <t>2019-06-23 05:56:20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glass object of antique glass, archeological findings, glass art work https://t.co/Ti36FB5bOy #art #mixedmedia https://t.co/BbocyxiyHQ</t>
+          <t>@engineers_feed And according to this gov study in #Austria where the #plasticbottle is from, only 28% are recycled https://t.co/sFWLOq0imZ</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1601,11 +1660,11 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2612619996070862</v>
+        <v>0.2456267774105072</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1617,22 +1676,25 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Glass object of antique glass', 'glass art work', 'archeological findings', 'mixedmedia']</t>
+          <t>['feed', 'Austria', 'gov study', 'plasticbottle', 'engineers']</t>
         </is>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2019-06-21 07:55:49</t>
+          <t>2019-06-23 02:37:05</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLASTIC  how is it #activistposter #drawings #plastic #fuckdoll #activist #streetartactivist #plasticfree https://t.co/tBJAFiv2R0</t>
+          <t>#aqua #product #drinkware #glass #plasticbottle #bottle #water #plastic #turquoise\n\nFREE Shipping Worldwide\nGet it https://t.co/vtTG3L9do0</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1642,11 +1704,11 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7941458225250244</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1658,36 +1720,39 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['fuckdoll', 'streetartactivist', 'drawings', 'activistposter', 'plasticfree']</t>
+          <t>['glass', 'water', 'plasticbottle', 'drinkware', 'Shipping', 'product', 'nGet']</t>
         </is>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2019-06-21 05:50:30</t>
+          <t>2019-06-22 01:06:25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RT @Harmeen: #Recycled #DecoupagedGlassBottle \nIt's fun turning #trashinto #TREASURE \n#recycling #glassbottle into a #vase    #inexpensive</t>
+          <t>RT @LeoWolfy: When an artist finishes your commission https://t.co/GdNYGQ4PvL</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>35308</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8239593505859375</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>glass</t>
+          <t>plastic</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1699,36 +1764,39 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['trashinto', 'TREASURE', 'recycling', 'DecoupagedGlassBottle', "nIt's fun", 'vase', 'Harmeen', 'RT']</t>
+          <t>['artist', 'LeoWolfy', 'commission']</t>
         </is>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2019-06-26 17:39:31</t>
+          <t>2019-06-24 17:54:56</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RT @deeperblue: T\nMade using natural rubber and recycled plastic bottles, Rock Hopper dive shoes are good for your feet AND good for the oc</t>
+          <t>Excited to share the latest addition to my #etsy shop: Vintage Glass and metal sugar pour container, 1990s, Kitchen https://t.co/ZeGV7vrvAj</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9193069338798523</v>
+        <v>0.8440326452255249</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>plastic</t>
+          <t>glass</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1740,32 +1808,35 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['recycled plastic bottles', 'Rock Hopper dive shoes', 'nMade', 'natural rubber', 'feet', 'deeperblue', 'RT']</t>
+          <t>['etsy shop', 'metal sugar', 'container', 'Vintage Glass', 'latest addition', 'Kitchen']</t>
         </is>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2019-06-26 17:19:12</t>
+          <t>2019-06-24 21:01:03</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RT @deeperblue: T\nMade using natural rubber and recycled plastic bottles, Rock Hopper dive shoes are good for your feet AND good for the oc</t>
+          <t>Rounded corners and smooth surfaces better protects produce, increasing the yield of your harvest!\n\n#harvestbin https://t.co/Wak0Ca5zKr</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9193069338798523</v>
+        <v>0.8738755583763123</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1781,543 +1852,13 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['recycled plastic bottles', 'Rock Hopper dive shoes', 'nMade', 'natural rubber', 'feet', 'deeperblue', 'RT']</t>
+          <t>['produce', 'smooth surfaces', 'Rounded corners', 'yield', 'harvestbin']</t>
         </is>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2019-06-26 17:00:35</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>T\nMade using natural rubber and recycled plastic bottles, Rock Hopper dive shoes are good for your feet AND good fo https://t.co/w0TFNcwPN9</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9258869886398315</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>['good fo', 'recycled plastic bottles', 'Rock Hopper dive shoes', 'natural rubber', 'nMade', 'feet']</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2019-06-25 20:40:35</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2019-06-25 14:18:51</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>DIY/Waste #Plasticbottle #FlowerVase New Ideas #WoolenGuldasta https://t.co/1J1SPkJSGU via @YouTube</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>['Plasticbottle', 'FlowerVase New Ideas', 'WoolenGuldasta', 'Waste', 'DIY', 'YouTube']</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2019-06-25 09:19:57</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Unusual #plasticbottle design of Zabava sunflower oil https://t.co/dcBnjE494R #packaging https://t.co/BsqK1HRkP0</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.7688534259796143</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>['plasticbottle design of Zabava sunflower oil', 'packaging']</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2019-06-25 06:34:19</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Hulls Industry body water refill stations to reduce plastics bottles a splash hit.\nRead More - https://t.co/1rVQt1WLYm</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>['plastics', 'Hulls Industry body water refill stations', 'splash hit', 'nRead']</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2019-06-24 12:39:52</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>RT @jamesmielke: I still dont understand how #plasticbottle is intended to be a selling point for @Snapple. As if more #plastic is meant t</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.167109340429306</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['dont', 'selling point', 'RT', 'jamesmielke', 'Snapple', 'plasticbottle']</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2019-06-24 12:18:51</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>I still dont understand how #plasticbottle is intended to be a selling point for @Snapple. As if more #plastic is https://t.co/RNVm8pH0QZ</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.2013776302337646</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>['selling point', 'plasticbottle', 'Snapple', 'dont']</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2019-06-24 11:29:03</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>RT @cabanamic: me di cuenta que siempre termino hablando de mi onda por ah me estas contando no s que se muri tu abuela y yo voy a poner</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10538</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7012739181518555</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>['cuenta que siempre termino hablando', 's que se muri tu abuela y yo voy', 'estas contando', 'mi onda por ah', 'poner', 'cabanamic', 'RT']</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2019-06-24 11:25:30</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>It does not take a few seconds to throw a #PlasticBottle, but it takes a long time for it to #Decompose. \nDitch the https://t.co/o0O8kNZQnJ</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.3036190271377563</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>['PlasticBottle', 'long time', 'seconds', 'nDitch']</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2019-06-24 10:45:11</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Only a few minutes, you can make a shovel.\n#shovel #plasticbottle https://t.co/QfQBebmlYr</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8193173408508301</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>['shovel', 'plasticbottle', 'minutes']</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2019-06-24 10:42:13</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>A plastic bottle can help you separate yolks from whites.\n#plasticbottle #eggseparate https://t.co/2xMHDngRlC</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.7559324502944946</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>['separate yolks', 'whites', 'plasticbottle', 'plastic bottle', 'eggseparate']</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2019-06-24 10:16:23</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>RT @Makerhuang1: Founded in 2006, we have over 10-year experience in producing plastic bottles. Our workshop covers an area of nearly 7,000</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>['year experience', 'plastic bottles', 'RT', 'Makerhuang1', 'workshop', 'area']</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2019-06-24 09:35:31</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>plastic</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
+      <c r="L33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,13 +1873,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -2353,7 +1894,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lifestyle</t>
+          <t>Cost</t>
         </is>
       </c>
     </row>
@@ -2363,7 +1904,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>Aesthetic</t>
         </is>
       </c>
     </row>
@@ -2373,7 +1914,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aesthetic</t>
+          <t>Product</t>
         </is>
       </c>
     </row>
@@ -2383,7 +1924,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Product</t>
+          <t>Sustainability</t>
         </is>
       </c>
     </row>
@@ -2393,7 +1934,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sustainability</t>
+          <t>Art</t>
         </is>
       </c>
     </row>
@@ -2403,7 +1944,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Art</t>
+          <t>Convenience</t>
         </is>
       </c>
     </row>
@@ -2413,7 +1954,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Convenience</t>
+          <t>Innovation</t>
         </is>
       </c>
     </row>
@@ -2422,16 +1963,6 @@
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>Innovation</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>Advertisement</t>
         </is>

--- a/finalData/Productfinal.xlsx
+++ b/finalData/Productfinal.xlsx
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,6 +1859,1590 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2019-06-25 21:27:36</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2019-06-25 18:53:37</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2019-06-25 18:34:33</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>@fitzyandwippa @MaryKayH188 @russellcrowe ...in glassbottle like https://t.co/nna7b4cchI</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['MaryKayH188', 'russellcrowe', 'fitzyandwippa', 'glassbottle']</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2019-06-25 15:29:02</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2019-06-25 13:48:05</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2019-06-25 13:44:17</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2019-06-25 12:41:05</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RT @smtownplussize: Who remembers these?  While on a day trip through East Tennessee we spotted these at a sale. Do you remember the clanki</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>['East Tennessee', 'day trip', 'sale', 'RT', 'clanki']</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2019-06-25 12:29:36</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2019-06-25 11:28:10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RT @smtownplussize: Who remembers these?  While on a day trip through East Tennessee we spotted these at a sale. Do you remember the clanki</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>['East Tennessee', 'day trip', 'sale', 'RT', 'clanki']</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-06-25 11:05:32</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RT @smtownplussize: Who remembers these?  While on a day trip through East Tennessee we spotted these at a sale. Do you remember the clanki</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>['East Tennessee', 'day trip', 'sale', 'RT', 'clanki']</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019-06-25 10:08:57</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019-06-25 10:08:10</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Who remembers these?  While on a day trip through East Tennessee we spotted these at a sale. Do you remember the cl https://t.co/hBUngwwmZj</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>['East Tennessee', 'day trip', 'sale']</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019-06-25 09:00:26</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019-06-25 02:39:47</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>glass bottle with embossment effect, customized glass bottle\nglass bottle manufacturer\n\n#glassbottle https://t.co/2DKfisCqK6</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8067518472671509</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['customized glass bottle', 'nglass bottle manufacturer', 'embossment effect', 'glassbottle']</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019-06-25 02:25:15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RT @BagLadysCart: Eiffel Tower Replica Glass Bottle/Decanter https://t.co/M8ddyXPZo6 via @Etsy #https://www.etsy.com/shop/Gem2theiVintage #</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>['Eiffel Tower Replica Glass Bottle', 'Decanter', 'BagLadysCart', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2019-06-25 20:40:35</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:18:51</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DIY/Waste #Plasticbottle #FlowerVase New Ideas #WoolenGuldasta https://t.co/1J1SPkJSGU via @YouTube</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>['Plasticbottle', 'FlowerVase New Ideas', 'WoolenGuldasta', 'Waste', 'DIY', 'YouTube']</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2019-06-25 09:19:57</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Unusual #plasticbottle design of Zabava sunflower oil https://t.co/dcBnjE494R #packaging https://t.co/BsqK1HRkP0</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7688534259796143</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>['plasticbottle design of Zabava sunflower oil', 'packaging']</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2019-06-25 06:34:19</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Hulls Industry body water refill stations to reduce plastics bottles a splash hit.\nRead More - https://t.co/1rVQt1WLYm</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>['plastics', 'Hulls Industry body water refill stations', 'splash hit', 'nRead']</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2019-06-24 12:39:52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RT @jamesmielke: I still dont understand how #plasticbottle is intended to be a selling point for @Snapple. As if more #plastic is meant t</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.167109340429306</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>['dont', 'selling point', 'RT', 'jamesmielke', 'Snapple', 'plasticbottle']</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2019-06-24 12:18:51</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>I still dont understand how #plasticbottle is intended to be a selling point for @Snapple. As if more #plastic is https://t.co/RNVm8pH0QZ</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.2013776302337646</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>['selling point', 'plasticbottle', 'Snapple', 'dont']</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2019-06-24 11:25:30</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>It does not take a few seconds to throw a #PlasticBottle, but it takes a long time for it to #Decompose. \nDitch the https://t.co/o0O8kNZQnJ</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.3036190271377563</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>['PlasticBottle', 'long time', 'seconds', 'nDitch']</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2019-06-24 10:45:11</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Only a few minutes, you can make a shovel.\n#shovel #plasticbottle https://t.co/QfQBebmlYr</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8193173408508301</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>['shovel', 'plasticbottle', 'minutes']</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2019-06-24 10:42:13</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>A plastic bottle can help you separate yolks from whites.\n#plasticbottle #eggseparate https://t.co/2xMHDngRlC</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.7559324502944946</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>['separate yolks', 'whites', 'plasticbottle', 'plastic bottle', 'eggseparate']</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2019-06-24 10:16:23</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RT @Makerhuang1: Founded in 2006, we have over 10-year experience in producing plastic bottles. Our workshop covers an area of nearly 7,000</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>['year experience', 'plastic bottles', 'RT', 'Makerhuang1', 'workshop', 'area']</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2019-06-24 09:35:31</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2019-06-24 09:16:53</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Good and natural things are always free! Refill water in your bottle do not buy!\n\n\n\n\n#plasticfree https://t.co/JzKobF7Tq1</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9735814332962036</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>['natural things', 'Refill water', 'bottle', 'plasticfree']</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2019-06-24 09:02:04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2019-06-24 09:01:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RT @RippleZoo: Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, if Leonard</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>['plastic lasts', 'RT', 'RippleZoo', 'single piece', 'context', 'Leonard']</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2019-06-24 09:00:24</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Because plastic lasts for so long, every single piece of #plastic ever made still exists. To put that in context, i https://t.co/9UemeBFsKu</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>13</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.2493803203105927</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>['plastic lasts', 'single piece', 'context']</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:42:06</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RT @QueenSkullDes: Current collection, 2 more to be added \n\n#queenskulldesigns #hauntedhouse #houseonhauntedhill #batesmotel #drawing #in</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.7398145198822021</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>['hauntedhouse', 'houseonhauntedhill', 'batesmotel', 'RT', 'Current collection', 'queenskulldesigns', 'drawing']</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:41:56</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Current collection, 2 more to be added \n\n#queenskulldesigns #hauntedhouse #houseonhauntedhill #batesmotel https://t.co/qNrTs2JnmT</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8069313764572144</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>['queenskulldesigns', 'hauntedhouse', 'houseonhauntedhill', 'batesmotel', 'Current collection']</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:34:46</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RT @QueenSkullDes: Finally finished this..\nHouse on haunted hill/Bates motel inspired.\n\n#queenskulldesigns #hauntedhouse #houseonhauntedhil</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9573091268539429</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>['Bates motel', 'queenskulldesigns', 'nHouse', 'haunted hill', 'hauntedhouse', 'houseonhauntedhil', 'RT']</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:34:39</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Finally finished this..\nHouse on haunted hill/Bates motel inspired.\n\n#queenskulldesigns #hauntedhouse https://t.co/a5dId0lQ7E</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9707748889923096</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>['Bates motel', 'nHouse', 'haunted hill', 'queenskulldesigns', 'hauntedhouse']</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2019-06-24 17:54:56</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Excited to share the latest addition to my #etsy shop: Vintage Glass and metal sugar pour container, 1990s, Kitchen https://t.co/ZeGV7vrvAj</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.8440326452255249</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['etsy shop', 'metal sugar', 'container', 'Vintage Glass', 'latest addition', 'Kitchen']</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2019-06-24 21:01:03</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rounded corners and smooth surfaces better protects produce, increasing the yield of your harvest!\n\n#harvestbin https://t.co/Wak0Ca5zKr</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8738755583763123</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>['produce', 'smooth surfaces', 'Rounded corners', 'yield', 'harvestbin']</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>

--- a/finalData/Productfinal.xlsx
+++ b/finalData/Productfinal.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21908"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_11E1532B5CF1BC1AEA8900D7446F4AA5A4C57DE1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_c86\AC\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_11E1532B5CF1BC1AEA8900D7446F4AA5A4C57DE1" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C93482EF-76F1-46DE-995F-FBAACC02FADC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="321">
   <si>
     <t>Time</t>
   </si>
@@ -371,6 +376,9 @@
     <t>RT @pedziii90: When you fancy a nice refreshing #coldinfusions twiningsteauk and it goes nicely in my nice new #glassbottle #ecofriendly #r</t>
   </si>
   <si>
+    <t>Aesthetic</t>
+  </si>
+  <si>
     <t>['nice refreshing', 'glassbottle', 'coldinfusions twiningsteauk', 'pedziii90', 'RT']</t>
   </si>
   <si>
@@ -443,6 +451,9 @@
     <t>Less single use means a brighter tomorrow. #SayNoToSingleUse #Lifefactory #Glassbottle #Wineglass https://t.co/elo6ym875U</t>
   </si>
   <si>
+    <t>Sustainibility</t>
+  </si>
+  <si>
     <t>['SayNoToSingleUse', 'Lifefactory', 'Glassbottle', 'Wineglass', 'single use', 'brighter tomorrow']</t>
   </si>
   <si>
@@ -647,6 +658,9 @@
     <t>beverage for summer\nwe are professional glass bottle manufacturer, provide all shape bottles as customer reques https://t.co/6PbtoYV6fk</t>
   </si>
   <si>
+    <t>Advertisment</t>
+  </si>
+  <si>
     <t>['professional glass bottle manufacturer', 'nwe', 'shape bottles', 'summer', 'customer reques', 'beverage']</t>
   </si>
   <si>
@@ -975,9 +989,6 @@
   </si>
   <si>
     <t>Cost</t>
-  </si>
-  <si>
-    <t>Aesthetic</t>
   </si>
   <si>
     <t>Innovation</t>
@@ -1356,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2653,8 +2664,11 @@
       <c r="G38" t="s">
         <v>15</v>
       </c>
+      <c r="H38" t="s">
+        <v>115</v>
+      </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2665,10 +2679,10 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2686,7 +2700,7 @@
         <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2697,10 +2711,10 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>9</v>
@@ -2717,8 +2731,11 @@
       <c r="G40" t="s">
         <v>15</v>
       </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
       <c r="J40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2729,10 +2746,10 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2750,7 +2767,7 @@
         <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2761,10 +2778,10 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2773,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0.83215165138244629</v>
+        <v>0.2</v>
       </c>
       <c r="F42" t="s">
         <v>14</v>
@@ -2782,7 +2799,7 @@
         <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2793,10 +2810,10 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2813,8 +2830,11 @@
       <c r="G43" t="s">
         <v>15</v>
       </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
       <c r="J43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2825,10 +2845,10 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2845,8 +2865,11 @@
       <c r="G44" t="s">
         <v>15</v>
       </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2857,10 +2880,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2878,7 +2901,7 @@
         <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -2889,10 +2912,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2901,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -2921,10 +2944,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2941,8 +2964,11 @@
       <c r="G47" t="s">
         <v>15</v>
       </c>
+      <c r="H47" t="s">
+        <v>115</v>
+      </c>
       <c r="J47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2953,10 +2979,10 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2965,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
@@ -2973,8 +2999,11 @@
       <c r="G48" t="s">
         <v>15</v>
       </c>
+      <c r="H48" t="s">
+        <v>94</v>
+      </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -2985,10 +3014,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3006,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3017,10 +3046,10 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3029,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0.2412287890911102</v>
+        <v>0.8</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3049,10 +3078,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3069,8 +3098,11 @@
       <c r="G51" t="s">
         <v>15</v>
       </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
       <c r="J51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3081,10 +3113,10 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3101,8 +3133,11 @@
       <c r="G52" t="s">
         <v>15</v>
       </c>
+      <c r="H52" t="s">
+        <v>115</v>
+      </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3113,10 +3148,10 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3134,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3145,7 +3180,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -3165,6 +3200,9 @@
       <c r="G54" t="s">
         <v>15</v>
       </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
       <c r="J54" t="s">
         <v>36</v>
       </c>
@@ -3177,7 +3215,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
@@ -3197,6 +3235,9 @@
       <c r="G55" t="s">
         <v>15</v>
       </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
       <c r="J55" t="s">
         <v>36</v>
       </c>
@@ -3209,10 +3250,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3230,7 +3271,7 @@
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3241,10 +3282,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C57">
         <v>10</v>
@@ -3262,7 +3303,7 @@
         <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3273,10 +3314,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3291,10 +3332,13 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3305,10 +3349,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -3325,6 +3369,9 @@
       <c r="G59" t="s">
         <v>15</v>
       </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
       <c r="J59" t="s">
         <v>49</v>
       </c>
@@ -3337,10 +3384,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -3357,8 +3404,11 @@
       <c r="G60" t="s">
         <v>15</v>
       </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
       <c r="J60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3369,10 +3419,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -3390,7 +3440,7 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3401,10 +3451,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -3422,7 +3472,7 @@
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3433,10 +3483,10 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
         <v>183</v>
-      </c>
-      <c r="B63" t="s">
-        <v>181</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -3454,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3465,10 +3515,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B64" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3486,7 +3536,7 @@
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3497,10 +3547,10 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3517,8 +3567,11 @@
       <c r="G65" t="s">
         <v>15</v>
       </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
       <c r="J65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3529,10 +3582,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3549,8 +3602,11 @@
       <c r="G66" t="s">
         <v>15</v>
       </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3561,10 +3617,10 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3581,8 +3637,11 @@
       <c r="G67" t="s">
         <v>15</v>
       </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3593,10 +3652,10 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3614,7 +3673,7 @@
         <v>15</v>
       </c>
       <c r="J68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3625,10 +3684,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3645,8 +3704,11 @@
       <c r="G69" t="s">
         <v>15</v>
       </c>
+      <c r="H69" t="s">
+        <v>23</v>
+      </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3657,10 +3719,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3678,7 +3740,7 @@
         <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3689,10 +3751,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -3710,7 +3772,7 @@
         <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3721,10 +3783,10 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -3742,7 +3804,7 @@
         <v>15</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3753,10 +3815,10 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C73">
         <v>7</v>
@@ -3774,7 +3836,7 @@
         <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3785,10 +3847,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -3805,8 +3867,11 @@
       <c r="G74" t="s">
         <v>15</v>
       </c>
+      <c r="H74" t="s">
+        <v>94</v>
+      </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3817,10 +3882,10 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -3837,8 +3902,11 @@
       <c r="G75" t="s">
         <v>15</v>
       </c>
+      <c r="H75" t="s">
+        <v>94</v>
+      </c>
       <c r="J75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3849,10 +3917,10 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -3869,8 +3937,11 @@
       <c r="G76" t="s">
         <v>15</v>
       </c>
+      <c r="H76" t="s">
+        <v>94</v>
+      </c>
       <c r="J76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3881,10 +3952,10 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -3899,10 +3970,10 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="J77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3913,10 +3984,10 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -3934,7 +4005,7 @@
         <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3945,10 +4016,10 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -3965,8 +4036,11 @@
       <c r="G79" t="s">
         <v>15</v>
       </c>
+      <c r="H79" t="s">
+        <v>94</v>
+      </c>
       <c r="J79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3995,7 +4069,7 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
@@ -4061,6 +4135,9 @@
       <c r="G82" t="s">
         <v>15</v>
       </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
       <c r="J82" t="s">
         <v>24</v>
       </c>
@@ -4157,6 +4234,9 @@
       <c r="G85" t="s">
         <v>15</v>
       </c>
+      <c r="H85" t="s">
+        <v>94</v>
+      </c>
       <c r="J85" t="s">
         <v>33</v>
       </c>
@@ -4221,6 +4301,9 @@
       <c r="G87" t="s">
         <v>15</v>
       </c>
+      <c r="H87" t="s">
+        <v>94</v>
+      </c>
       <c r="J87" t="s">
         <v>39</v>
       </c>
@@ -4253,6 +4336,9 @@
       <c r="G88" t="s">
         <v>15</v>
       </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
       <c r="J88" t="s">
         <v>42</v>
       </c>
@@ -4285,6 +4371,9 @@
       <c r="G89" t="s">
         <v>15</v>
       </c>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
       <c r="J89" t="s">
         <v>36</v>
       </c>
@@ -4317,6 +4406,9 @@
       <c r="G90" t="s">
         <v>15</v>
       </c>
+      <c r="H90" t="s">
+        <v>23</v>
+      </c>
       <c r="J90" t="s">
         <v>36</v>
       </c>
@@ -4349,6 +4441,9 @@
       <c r="G91" t="s">
         <v>15</v>
       </c>
+      <c r="H91" t="s">
+        <v>23</v>
+      </c>
       <c r="J91" t="s">
         <v>36</v>
       </c>
@@ -4393,10 +4488,10 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4414,7 +4509,7 @@
         <v>15</v>
       </c>
       <c r="J93" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4425,10 +4520,10 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B94" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -4446,21 +4541,21 @@
         <v>15</v>
       </c>
       <c r="J94" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4478,21 +4573,21 @@
         <v>15</v>
       </c>
       <c r="J95" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4510,21 +4605,21 @@
         <v>15</v>
       </c>
       <c r="J96" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4542,7 +4637,7 @@
         <v>15</v>
       </c>
       <c r="J97" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4553,10 +4648,10 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4574,21 +4669,21 @@
         <v>15</v>
       </c>
       <c r="J98" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4606,7 +4701,7 @@
         <v>15</v>
       </c>
       <c r="J99" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4617,10 +4712,10 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4638,7 +4733,7 @@
         <v>15</v>
       </c>
       <c r="J100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4649,10 +4744,10 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4670,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4681,10 +4776,10 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4702,7 +4797,7 @@
         <v>15</v>
       </c>
       <c r="J102" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4713,10 +4808,10 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B103" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -4734,7 +4829,7 @@
         <v>15</v>
       </c>
       <c r="J103" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4745,10 +4840,10 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -4766,7 +4861,7 @@
         <v>15</v>
       </c>
       <c r="J104" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4777,10 +4872,10 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C105">
         <v>27</v>
@@ -4798,7 +4893,7 @@
         <v>15</v>
       </c>
       <c r="J105" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4809,10 +4904,10 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4827,10 +4922,10 @@
         <v>55</v>
       </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J106" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4841,10 +4936,10 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4859,10 +4954,10 @@
         <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="J107" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4873,10 +4968,10 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4891,10 +4986,10 @@
         <v>55</v>
       </c>
       <c r="G108" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J108" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4905,10 +5000,10 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -4926,7 +5021,7 @@
         <v>15</v>
       </c>
       <c r="J109" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -4937,10 +5032,10 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -4958,7 +5053,7 @@
         <v>15</v>
       </c>
       <c r="J110" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4969,10 +5064,10 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -4987,10 +5082,10 @@
         <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="J111" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -5001,7 +5096,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s">
         <v>70</v>
@@ -5033,10 +5128,10 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -5054,7 +5149,7 @@
         <v>15</v>
       </c>
       <c r="J113" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -5065,10 +5160,10 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -5086,7 +5181,7 @@
         <v>15</v>
       </c>
       <c r="J114" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -5097,10 +5192,10 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5114,11 +5209,8 @@
       <c r="F115" t="s">
         <v>55</v>
       </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
       <c r="J115" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5129,10 +5221,10 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -5150,7 +5242,7 @@
         <v>15</v>
       </c>
       <c r="J116" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5161,10 +5253,10 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -5179,10 +5271,13 @@
         <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="H117" t="s">
+        <v>23</v>
       </c>
       <c r="J117" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5193,10 +5288,10 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -5211,10 +5306,13 @@
         <v>55</v>
       </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="H118" t="s">
+        <v>23</v>
       </c>
       <c r="J118" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5225,10 +5323,10 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -5243,10 +5341,13 @@
         <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>140</v>
+      </c>
+      <c r="H119" t="s">
+        <v>23</v>
       </c>
       <c r="J119" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5257,7 +5358,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B120" t="s">
         <v>73</v>
@@ -5289,10 +5390,10 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B121" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -5309,8 +5410,11 @@
       <c r="G121" t="s">
         <v>15</v>
       </c>
+      <c r="H121" t="s">
+        <v>94</v>
+      </c>
       <c r="J121" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5321,10 +5425,10 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -5341,8 +5445,11 @@
       <c r="G122" t="s">
         <v>15</v>
       </c>
+      <c r="H122" t="s">
+        <v>94</v>
+      </c>
       <c r="J122" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5353,10 +5460,10 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -5371,10 +5478,10 @@
         <v>55</v>
       </c>
       <c r="G123" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J123" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5397,13 +5504,13 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0.167109340429306</v>
+        <v>0.9</v>
       </c>
       <c r="F124" t="s">
         <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J124" t="s">
         <v>56</v>
@@ -5469,6 +5576,9 @@
       <c r="G126" t="s">
         <v>15</v>
       </c>
+      <c r="H126" t="s">
+        <v>140</v>
+      </c>
       <c r="J126" t="s">
         <v>62</v>
       </c>
@@ -5499,7 +5609,7 @@
         <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J127" t="s">
         <v>65</v>
@@ -5533,6 +5643,9 @@
       <c r="G128" t="s">
         <v>15</v>
       </c>
+      <c r="H128" t="s">
+        <v>101</v>
+      </c>
       <c r="J128" t="s">
         <v>68</v>
       </c>
@@ -5627,7 +5740,7 @@
         <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="J131" t="s">
         <v>77</v>
@@ -5821,6 +5934,9 @@
       <c r="G137" t="s">
         <v>15</v>
       </c>
+      <c r="H137" t="s">
+        <v>23</v>
+      </c>
       <c r="J137" t="s">
         <v>91</v>
       </c>
@@ -5833,10 +5949,10 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B138" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -5853,8 +5969,11 @@
       <c r="G138" t="s">
         <v>15</v>
       </c>
+      <c r="H138" t="s">
+        <v>23</v>
+      </c>
       <c r="J138" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -5865,10 +5984,10 @@
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -5885,6 +6004,9 @@
       <c r="G139" t="s">
         <v>15</v>
       </c>
+      <c r="H139" t="s">
+        <v>94</v>
+      </c>
       <c r="J139" t="s">
         <v>98</v>
       </c>
@@ -5897,10 +6019,10 @@
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -5917,8 +6039,11 @@
       <c r="G140" t="s">
         <v>15</v>
       </c>
+      <c r="H140" t="s">
+        <v>94</v>
+      </c>
       <c r="J140" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -5929,10 +6054,10 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B141" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -5949,8 +6074,11 @@
       <c r="G141" t="s">
         <v>15</v>
       </c>
+      <c r="H141" t="s">
+        <v>94</v>
+      </c>
       <c r="J141" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -5961,10 +6089,10 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B142" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -5981,8 +6109,11 @@
       <c r="G142" t="s">
         <v>15</v>
       </c>
+      <c r="H142" t="s">
+        <v>94</v>
+      </c>
       <c r="J142" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -5993,10 +6124,10 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B143" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -6013,8 +6144,11 @@
       <c r="G143" t="s">
         <v>15</v>
       </c>
+      <c r="H143" t="s">
+        <v>94</v>
+      </c>
       <c r="J143" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -6045,6 +6179,9 @@
       <c r="G144" t="s">
         <v>15</v>
       </c>
+      <c r="H144" t="s">
+        <v>23</v>
+      </c>
       <c r="J144" t="s">
         <v>98</v>
       </c>
@@ -6057,10 +6194,10 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B145" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -6078,7 +6215,7 @@
         <v>15</v>
       </c>
       <c r="J145" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -6089,10 +6226,10 @@
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B146" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -6110,7 +6247,7 @@
         <v>15</v>
       </c>
       <c r="J146" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -6140,6 +6277,9 @@
       </c>
       <c r="G147" t="s">
         <v>15</v>
+      </c>
+      <c r="H147" t="s">
+        <v>101</v>
       </c>
       <c r="J147" t="s">
         <v>102</v>
@@ -6161,14 +6301,14 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6176,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6184,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6224,7 +6364,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6241,6 +6381,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="168b8d325a13eff6fb375030edbea8e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="818ea96dd1355113715be5cc0484ce34" ns2:_="" ns3:_="">
     <xsd:import namespace="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
@@ -6405,12 +6551,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6421,11 +6561,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F40157E-962B-422E-B72F-6A16805DF849}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46C7B8C2-509B-448B-9011-213B3F869EF7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46C7B8C2-509B-448B-9011-213B3F869EF7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F40157E-962B-422E-B72F-6A16805DF849}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/finalData/Productfinal.xlsx
+++ b/finalData/Productfinal.xlsx
@@ -392,7 +392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L343"/>
+  <dimension ref="A1:L443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B95" sqref="B95"/>
@@ -15783,6 +15783,4406 @@
         <v>0</v>
       </c>
       <c r="L343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:39:29</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>RT @NSACTION_US: NSAC Partner @endofwastefdn has recently entered into two exciting new partnerships with Rocky Mountain Bottle Company and</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.8477111458778381</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>['exciting new partnerships', 'Rocky Mountain Bottle Company', 'US', 'NSAC Partner', 'NSACTION', 'endofwastefdn']</t>
+        </is>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:36:38</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Some more Korean food. (Except for the clear glass soda bottle- I think that's a Japanese thing)</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.8959823250770569</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>['clear glass soda bottle', 'Japanese thing', 'Korean food']</t>
+        </is>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:34:04</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>@cryptics if you don't do tires often a good leaf blower works pretty well, i still use a cinch either way,..\n\ndon't know what a zoom bottle for glass beads is,..</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.8261783123016357</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>['tires', 'zoom bottle', 'good leaf blower', 'glass beads', 'way', 'cinch', 'cryptics']</t>
+        </is>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:31:46</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>@dizzysinclair A bottle of orange juice. I didn't even pour it in a glass...</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.7732936143875122</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>['dizzysinclair', 'bottle of orange juice', 'glass']</t>
+        </is>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:30:00</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>@itsjamiesparks The one emoji that baffles me is not available is a simple glass or bottle of water. Have wanted to use for 'thirsty', but is non-existent</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.08580246567726135</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>['simple glass', 'bottle of water', 'emoji', 'itsjamiesparks']</t>
+        </is>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:28:38</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>@NYMobdoll @RedneckRiviera I respect that! However, even my glass and corks are Made In America! And I give 10% of the profits of every bottle to @FoldsofHonor Not sure many brands can say that...You might wanna try it at some point:)</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>['FoldsofHonor', 'bottle', 'glass', 'corks', 'America', 'profits', 'brands', 'NYMobdoll', 'RedneckRiviera', 'wanna']</t>
+        </is>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:27:49</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Vintage Ship in a Bottle, Dutch Lemmer Veerschuit Bottle with Wooden Pedestal, Sailing Ship in Glass Bottle, Boat Lovers, 70s https://t.co/PsK669fVJY #polaroid #summer https://t.co/4f92XjfIbp</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>['Glass Bottle', 'Dutch Lemmer Veerschuit Bottle', 'Sailing Ship', 'Vintage Ship', 'Wooden Pedestal', 'Boat Lovers', 'polaroid', 'summer']</t>
+        </is>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:27:28</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>@ElliottRHams Conspiracy Theory: The bottle of water from Marco Rubio's SOTU rebuttal becomes the glass of water with a D on it that primaries AOC next year.</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>['bottle of water', 'glass of water', "Marco Rubio's SOTU rebuttal", 'ElliottRHams Conspiracy Theory', 'primaries AOC', 'year']</t>
+        </is>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:26:58</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>On Sale 1 Coke Bottle Green Vintage Antique Style Depression Glass Cabinet Knob Drawer Pulls Victorian Furniture Restoration Retro Shabby Ch https://t.co/V5q3NnE10O #chichimama05 #Etsy #Hardware https://t.co/GB6Tg003ZI</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>['Coke Bottle Green Vintage Antique Style Depression Glass Cabinet Knob Drawer', 'Victorian Furniture Restoration Retro Shabby Ch', 'chichimama05', 'Sale', 'Etsy', 'Hardware']</t>
+        </is>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:26:09</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>@turbulentjxsh @LilNasXThicc @LilNasX build a tnt cannon and then distract them with while you slam one of them on the head with a fake glass bottle</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>['LilNasXThicc', 'head', 'fake glass bottle', 'tnt cannon', 'turbulentjxsh']</t>
+        </is>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:25:10</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>RT @Loren70142310: @dulcepanda27ri @ELF2094 @SJofficial @shfly3424 Uuuf Chilean wine! Though you know? Mendoza,Argentina has also good reds</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.8099437952041626</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>['ELF2094', 'SJofficial', 'dulcepanda27ri', 'shfly3424 Uuuf Chilean wine', 'Mendoza', 'Argentina', 'good reds', 'Loren70142310', 'RT']</t>
+        </is>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:24:34</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>If Jamaicans would talk for an extra 5 minutes, then the murder rate wouldn\'t be so high. But the quickness to grab a broken glass bottle, swing a machette or pull the trigger of a cheap hand gun because someone probably said something "funny", is costing the country many lives.</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>['murder rate wouldn', 'trigger', 'broken glass bottle', 'machette', 'minutes', 'cheap hand gun', 'quickness', 'country', 'lives', 'Jamaicans']</t>
+        </is>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:24:19</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>RT @MamaSoulas709: Enjoy a glass of wine included with any 8oz strip. Add a whole bottle (of featured brands) for only $20 more! Tuesdays a</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.9461604952812195</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>['glass of wine', 'MamaSoulas709', 'bottle', 'featured brands', 'RT', 'strip', 'Tuesdays']</t>
+        </is>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:20:14</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>@corlynmg i love tory burchs! i have the original one, i think its a glass bottle with orange and gold on the lid!</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.8993292450904846</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>['corlynmg i', 'orange', 'gold', 'glass bottle', 'tory burchs', 'lid']</t>
+        </is>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:19:33</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>I'd love to meet the agency that came up with this idea. And their clients, who approved it. Have to give them a high five, in the back of the head, with a glass bottle. https://t.co/cYMsggSgyE</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.8599783182144165</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>['head', 'glass bottle', 'agency', 'idea', 'clients']</t>
+        </is>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:16:40</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>A true experience for the whole family. Today is your last day of the week to get a free bottle of wine when you order a 4-person mixed grill or a free glass of wine each when you order a 2-person mixed grill. (Deal on from Monday-Wednesday). #Holiday #Warrington #Chilledvibes https://t.co/t1waVJSgcC</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.8963241577148438</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>['person mixed grill', 'free glass of wine', 'free bottle of wine', 'week', 'true experience', 'family', 'Holiday', 'Warrington', 'Chilledvibes', 'Deal']</t>
+        </is>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:15:59</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>@manoj_lala @filmibaaz @anandmahindra @izizibottles Itne mein to daru ki bottle aa jayegi, I bet. Once done with it, the empty glass bottle can be used for water!</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.7557756900787354</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>['glass bottle', 'daru ki bottle aa jayegi', 'izizibottles Itne mein', 'anandmahindra', 'filmibaaz', 'lala', 'manoj', 'water']</t>
+        </is>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:13:40</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Breakfast:      \n Lunch:     Bottle With Popping Cork  (2 servings)   Spaghetti  (2 servings)\n Dinner:    Shortcake  (2 servings)   Spaghetti  (2 servings)  Glass of Milk  (1 serving)</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>['servings', 'Spaghetti', 'n Lunch', 'n Dinner', 'Bottle', 'Popping Cork', 'Shortcake', 'Breakfast', 'Glass of Milk']</t>
+        </is>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:12:56</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Car Cleaner Tools Kit, DEDC Car Cleaning Wiper Set with Washable Microfiber Wipes Cleaning Cloth 100ML Empty Spray Bottle Canvas Storage Pouch for Car Home Kichens Set of 5\nMore Info: https://t.co/oep47liPSz\n\nDEDC Car Cleaning Tools Kit Windshield Cleaner Auto Glass ... https://t.co/7dORihLV2E</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>['Car Cleaner Tools Kit', 'DEDC Car Cleaning Wiper Set', 'Car Home Kichens Set', 'Car Cleaning Tools Kit Windshield Cleaner Auto Glass', 'Washable Microfiber Wipes Cleaning Cloth', 'Spray Bottle Canvas Storage Pouch', 'nMore Info']</t>
+        </is>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:12:29</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>8\nI fill the bathtub and pour my self a glass of champagne. I sink in and sip this glorious nectar. Damn, this boy had some style. Waiting for me in my room was a bottle of champagne and some chocolates  and fresh fruit. He had been paying attention. The thot of him ordering and</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.205574244260788</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>['glass of champagne', 'bottle of champagne', 'chocolates', 'bathtub', 'self', 'fresh fruit', 'room', 'boy', 'style', 'glorious nectar']</t>
+        </is>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:10:19</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>#hashtag3 Reusable Transparent Glass Travel Water Bottle with Protective Silicone Sleeve https://t.co/jRj5CUrmCC https://t.co/H7jZm102Ax</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>['hashtag3 Reusable Transparent Glass Travel Water Bottle', 'Protective Silicone Sleeve']</t>
+        </is>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:09:27</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>RT @thetoonguy: Step aside Jason Statham and @akshaykumar , a Green #turtle takes the #BottleCapChallenge !\nComic from my column with @RGSu</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>54</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>['akshaykumar', 'Step', 'Jason Statham', 'BottleCapChallenge', 'Green', 'thetoonguy', 'nComic', 'column', 'turtle', 'RGSu']</t>
+        </is>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:08:33</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>I order a bottle. ALWAYS. I feel like a glass is a rip off. And some of the wines that I like don't have glass option.</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.1446329057216644</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>['glass option', 'wines', 'rip', 'bottle']</t>
+        </is>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:07:49</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>@Mokgadi_Heart I shall have a glass or the bottle on your behalf</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.8423566818237305</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>['glass', 'Heart', 'bottle', 'behalf', 'Mokgadi']</t>
+        </is>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:07:46</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>She twirled the empty bottle around in her hand, watching the sun sparkle on  the glass. Empty, she thought. Just like me.\n#1linewed #onceandforall #RomanceReaders</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>['onceandforall', 'hand', 'sparkle', 'RomanceReaders', 'bottle', 'glass']</t>
+        </is>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:05:25</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Personal Herbal Psychic Healing  Glass Bottle Charm by MysticalBluebonnets https://t.co/N8UvPUiB8b via @Etsy</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>['Personal Herbal Psychic Healing  Glass Bottle Charm', 'MysticalBluebonnets', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:03:05</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I was at the park and I saw a broken bottle. I decided to clean it up bc it was made of some tiny pieces, and kids/dogs play there quite often...\n\nAnyway managed to kneel in some glass and had to cycle home with a shin and hand covered in blood </t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.246071994304657</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>['tiny pieces', 'home', 'shin', 'hand', 'kids', 'dogs', 'park', 'broken bottle', 'blood', 'glass']</t>
+        </is>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:01:03</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>It's the 72nd birthday of our original recipe today!   \nCelebrate with us by cracking open a bottle of our 1947 gin and serve it up with an ice cold glass of ginger ale! \nRunning low on gin at home? Order now and get free shipping on orders over 17! \nhttps://t.co/Fjz6rxIvrJ https://t.co/XOD7GRLg8H</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>['ice cold glass of ginger ale', 'free shipping', 'nRunning low', 'home', 'birthday', 'original recipe', 'orders', 'bottle', 'nCelebrate']</t>
+        </is>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:00:53</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>@thetimes Everything comes full circle.  We used to have milk in glass bottles which were recycled.  As were fizzy drink bottles.  You got your deposit back on the bottle.</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>['glass bottles', 'fizzy drink bottles', 'milk', 'thetimes', 'circle', 'deposit']</t>
+        </is>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:00:38</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Why get a glass when you can get 50% offa bottle? Join us for #Winesday.   https://t.co/70V1LRVmlf</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.7910857796669006</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>['offa bottle', 'glass', 'Winesday']</t>
+        </is>
+      </c>
+      <c r="K373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:59:11</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>RT @myvinespot: Cant say I come cross many #glass stopperslikely due to price. Theyre very attractive tho, esp on a uniquely-shaped bott</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.229024738073349</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>['myvinespot', 'glass', 'Theyre', 'shaped bott', 'RT', 'price']</t>
+        </is>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:57:01</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>RT @Boondockfinds: Blue vanity talc glass jar Bohemian Czech Mosser Collectible https://t.co/qPg231Rgjx via @Etsy #vantiy #jar #talc #powde</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>49</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>['jar', 'Blue vanity talc glass', 'Bohemian Czech Mosser Collectible', 'Etsy', 'Boondockfinds', 'vantiy', 'RT', 'powde']</t>
+        </is>
+      </c>
+      <c r="K375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:54:38</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>@FeralAsTheFlame Well it tends to .....\n*twirls top off the whiskey bottle\n\nAlways but always .\n\nPours into the glass dragging out his answer\n\nHits the sweetest spot everytime.\nAnd i mean everytime.\n\nHe chuckled swigging back</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.8378197550773621</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>['sweetest spot everytime', 'nAnd i', 'answer', 'twirls', 'whiskey bottle', 'swigging', 'glass', 'FeralAsTheFlame']</t>
+        </is>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:54:03</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Celebrating your graduation? Head down to @CraftDoughCampo  for any 2 pizzas &amp;amp; a bottle of house wine for 20! Plus a glass of FREE FIZZ for Grads!   No need to book, just walk in... Check out the topping choices here: https://t.co/hq1qP9cPwO https://t.co/z6avGoXq2W</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.9069330096244812</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>['bottle of house wine', 'CraftDoughCampo', 'glass of FREE FIZZ', 'Grads', 'pizzas', 'topping choices', 'Head', 'graduation', 'need']</t>
+        </is>
+      </c>
+      <c r="K377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:44:34</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>I was attacked with a glass bottle because of my MAGA hat https://t.co/u8fEsTR7Hn</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.2769752740859985</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>['glass bottle', 'MAGA hat']</t>
+        </is>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:43:46</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>RT @katynell: its when you start to pour that 3rd glass of wine, after youre only going to have one glass that you decide you might as</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>4</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>['glass of wine', 'youre', 'RT', 'katynell']</t>
+        </is>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:42:32</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>RT @wigu: Weird how I can drink out of a plastic bottle hundreds if not thousands of times and never have to wash it but if I even touch a</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>3</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.7322781682014465</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>['plastic bottle hundreds', 'thousands of times', 'RT', 'wigu']</t>
+        </is>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:40:13</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Need #plastic food #pots? Order now and save on bulk orders. #Package your food the right with The Bottle People!  #Packaging #Glass #Bottle #Jars https://t.co/0YoUQPpyM9 https://t.co/ICQQoGQwGr</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>['Bottle People', 'plastic food', 'right', 'Packaging', 'Glass', 'Jars', 'bulk orders', 'pots', 'Package']</t>
+        </is>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:34:37</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>RT @WrockTheReread: Hermione ladles large dollops of the potion into each of the\nglasses. Then she shakes Millicent Bulstrodes hair out of</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>['Hermione ladles large dollops', 'potion', 'WrockTheReread', 'RT', 'Millicent Bulstrodes hair', 'nglasses']</t>
+        </is>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:29:26</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>@sheetz Drink water &amp;amp; unsweetened tea &amp;amp; stay hydrated / don't waste your money on engineering fluids. Get a glass *chemically inert ** protects puririty* water bottle &amp;amp; fill it with filtered tap water &amp;amp; enjoy :) Add electrolyte powder if you drink more for exercise recovery #hydration</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.978028416633606</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>['amp', 'water bottle', 'sheetz Drink water', 'filtered tap water', 'unsweetened tea', 'puririty', 'money', 'exercise recovery', 'electrolyte powder', 'hydration', 'engineering fluids', 'glass']</t>
+        </is>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:21:58</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>RT @thetoonguy: Step aside Jason Statham and @akshaykumar , a Green #turtle takes the #BottleCapChallenge !\nComic from my column with @RGSu</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>54</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr">
+        <is>
+          <t>['akshaykumar', 'Step', 'Jason Statham', 'BottleCapChallenge', 'Green', 'thetoonguy', 'nComic', 'column', 'turtle', 'RGSu']</t>
+        </is>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:20:44</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>New Packaging System Designed for Glass Bottle Shipment https://t.co/tEIJgL32gq #packaging #packagingnews</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>['New Packaging System', 'Glass Bottle Shipment', 'packagingnews']</t>
+        </is>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:18:37</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>@BryanWalk330 it was super tasty, definitely tasted a lot like orange. got me straight fucked up. I couldn't even finish the last glass of the bottle. hahah</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.7763720750808716</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr">
+        <is>
+          <t>['lot', 'BryanWalk330', 'glass', 'bottle', 'orange', 'hahah']</t>
+        </is>
+      </c>
+      <c r="K386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:11:45</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>RT @AriaAtlanta: We are honored to receive another Wine Spectator Best of Award of Excellence!!! Stop by for a glass  or bottle from our a</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>3</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.9132339954376221</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>['Wine Spectator Best of Award', 'Excellence', 'RT', 'AriaAtlanta', 'glass', 'bottle']</t>
+        </is>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:08:59</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>And being positive isn't on the cards for me today, because she physically hit me today, then threw me with a glass bottle that broke partially on my head and face, so yeah, I'm hurting, both physically and from within, but hey, crackal jeature will probably survive.</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.07708054780960083</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>['head', 'glass bottle', 'cards', 'crackal jeature', 'face']</t>
+        </is>
+      </c>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:02:14</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Looks like I went from drinking my whiskey from the bottle to a Chrystal glass on the rocks, and cheers to that https://t.co/V6me3H3Kvj</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>3</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.8371862769126892</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>['Chrystal glass', 'bottle', 'rocks', 'whiskey', 'cheers']</t>
+        </is>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2019-07-17 12:01:29</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>RT @OurCowMolly: There is a readily available alternative to bottled water being in single use plastic, this is a glass bottle of the fines</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>6</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.9173949956893921</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>['bottled water', 'single use plastic', 'available alternative', 'glass bottle', 'OurCowMolly', 'fines', 'RT']</t>
+        </is>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:52:11</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Vintage old whiskey liquor bottle glass Made in by Vintage4Moms https://t.co/VrjsggpP92 via https://t.co/J7MZdWdoJV</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>['Vintage old whiskey liquor bottle glass', 'Vintage4Moms']</t>
+        </is>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:52:10</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>@Kaytality That definitely used to be part of the base of a glass bottle https://t.co/zoEJ3jVkbS</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.2544263005256653</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>['base', 'glass bottle', 'Kaytality']</t>
+        </is>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:43:34</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>RT @StirlingGin: Who would like a #bottle of our very first batch of @StirlingGin made in our new home?  Join our Journey and get a #limite</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>7</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.851681649684906</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>['StirlingGin', 'batch', 'new home', 'Journey', 'limite', 'bottle', 'RT']</t>
+        </is>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:43:32</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>RT @thetoonguy: Step aside Jason Statham and @akshaykumar , a Green #turtle takes the #BottleCapChallenge !\nComic from my column with @RGSu</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>54</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>['akshaykumar', 'Step', 'Jason Statham', 'BottleCapChallenge', 'Green', 'thetoonguy', 'nComic', 'column', 'turtle', 'RGSu']</t>
+        </is>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:40:51</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>@Mbalze2 @Mbalze2 beautiful kenna o ke mo! am so excited...how you doing punky am so excited where's a bottle of BNG I need a glass https://t.co/HHovNMm1n7</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.8191664814949036</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>['Mbalze2 beautiful kenna o ke mo', 'bottle of BNG', 'glass']</t>
+        </is>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:36:30</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>@Iron_Maidenne That is a familiar image right now. Except I left the glass upstairs and just went with the bottle.</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.08522933721542358</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>['Maidenne', 'familiar image', 'Iron', 'glass', 'bottle']</t>
+        </is>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:36:12</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>..I drank a few beers, a bottle of whiskey, I still remember why\nI swallowed rum, gin, vodka, brandy and a glass of mulberry wine.. @ Fields Bar and Kitchen https://t.co/fVh5LLRn2C</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>['brandy', 'vodka', 'gin', 'nI swallowed rum', 'glass of mulberry wine', 'Fields Bar', 'Kitchen', 'beers', 'bottle of whiskey']</t>
+        </is>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:35:34</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Whos looking forward to our #WineWednesday offer today? Simply purchase 2 x 250ml glasses of any wine served by the glass &amp;amp; enjoy the rest of the bottle on us!!! #happydays #winelovers #ladiesatlunch \n\nhttps://t.co/s6tlCaB23z https://t.co/xKcNABcf5E</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.8761544227600098</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>['rest', 'winelovers', 'ladiesatlunch', 'amp', 'happydays', 'Whos', 'WineWednesday', 'bottle', 'glasses', 's6tlCaB23z']</t>
+        </is>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:35:08</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>#SteakAndWine at #TheOldBank in #Brighton - Come and enjoy a perfectly cooked #Steak and a nice #Glass or #Bottle of #Argentine #Malbec - Absolutely delicious!\n\n https://t.co/6aMFEALoV0 \n\n#TripAdvisor #CertificateOfExcellence https://t.co/T3VnQwxjWY</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.9946306943893433</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>['Glass', 'Argentine', 'Bottle', 'Malbec', 'SteakAndWine', 'TheOldBank', 'Brighton', 'TripAdvisor', 'CertificateOfExcellence']</t>
+        </is>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:33:35</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>@Strickomaster If you do either use a glass bottle or, as you are in Germany, make sure you recycle.</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.8082691431045532</v>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>['glass bottle', 'Germany', 'Strickomaster']</t>
+        </is>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:30:33</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>My tongue is full of glass\nBecause I promised my friend I'd chew up the bottle\nIf he truly drank the poison</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.1098072826862335</v>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>['friend', 'glass', 'nBecause', 'nIf', 'bottle', 'tongue', 'poison']</t>
+        </is>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:26:02</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>I grew up with this aunty her name is Cecilia she has asthma, bought a carton of Benson &amp;amp; Hedges and a 1L glass bottle of Tab. https://t.co/yMuq2SLkqb</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>1</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.7109673619270325</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>['Hedges', 'carton of Benson', 'asthma', 'amp', 'Cecilia', 'glass bottle of', 'aunty']</t>
+        </is>
+      </c>
+      <c r="K402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:24:33</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>RT @thetoonguy: Step aside Jason Statham and @akshaykumar , a Green #turtle takes the #BottleCapChallenge !\nComic from my column with @RGSu</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>54</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>['akshaykumar', 'Step', 'Jason Statham', 'BottleCapChallenge', 'Green', 'thetoonguy', 'nComic', 'column', 'turtle', 'RGSu']</t>
+        </is>
+      </c>
+      <c r="K403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:16:49</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>RT @katynell: its when you start to pour that 3rd glass of wine, after youre only going to have one glass that you decide you might as</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>4</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>['glass of wine', 'youre', 'RT', 'katynell']</t>
+        </is>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:12:35</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>@girtbysea Waste of a generous glass poured from the end of a bottle of Glenfiddich</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.1502848267555237</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>['end', 'generous glass', 'girtbysea Waste', 'bottle of Glenfiddich']</t>
+        </is>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:12:34</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>I put coconut oil in a pretty glass bottle yesterday for a video, but we keep the apartment so cold it looks like Im just storing congealed cum.</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.2324780523777008</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>['pretty glass bottle', 'video', 'coconut oil', 'Im', 'apartment']</t>
+        </is>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:11:55</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Holy fuck what happened to fist fights and the odd glass bottle  https://t.co/2D9MNX4y0I</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.04873797297477722</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>['fights', 'odd glass bottle', 'Holy fuck']</t>
+        </is>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:08:37</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">I wish a pint glass was like a sauce bottle so when you tapped the more came out </t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>1</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.1862539350986481</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>['pint glass', 'sauce bottle']</t>
+        </is>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:01:45</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Here are 5 items that you need to have in your waste-free kitchen:\nhttps://t.co/I6DNiqEY9S storage jars\n2.Beeswax food wrap\n3.Reusable water bottle\n4.Steel drinking straws.\n5.Mesh fruit bag https://t.co/YjR7OqZwH5</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.1941814720630646</v>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>['water', 'drinking', 'food', 'I6DNiqEY9S storage', 'fruit bag', 'waste-free', 'items']</t>
+        </is>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2019-07-17 11:00:07</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Happy Hours 2-5pm Every Day | WINE DOWN WEDNESDAYS 1/2 off All Wines by Bottle or Glass, excluding house  5pm-Close</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.8688883781433105</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>['pm-Close', 'WEDNESDAYS', 'Bottle', 'Wines', 'house', 'Glass', 'Happy Hours']</t>
+        </is>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:57:20</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>@magixapprentice She rolled her eyes. "Look I\'ve already poured it. If anything just imagine it\'s honey." She walks to behind the counter and grabs a glass bottle of water from the floor.\n\nShe walks back putting it on the table. "I\'ve brought you some water to rinse your mouth after.</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>['walks', 've', 'glass bottle of water', 'floor', 'counter', 'magixapprentice', 'eyes', 's honey', 'table', 'mouth']</t>
+        </is>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:56:57</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Vintage Sprite Bottle Big Bend National Park Bottle Thick Green Glass Retro Soda Bottle Vtg 1960's Mid Century Sprite Bottle https://t.co/8PWPrgbsss via @Etsy</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>['s Mid Century Sprite Bottle', 'Vintage Sprite Bottle Big Bend National Park Bottle Thick Green Glass Retro Soda Bottle Vtg', 'Etsy']</t>
+        </is>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:53:53</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>RT @katynell: its when you start to pour that 3rd glass of wine, after youre only going to have one glass that you decide you might as</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>4</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>['glass of wine', 'youre', 'RT', 'katynell']</t>
+        </is>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:52:08</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>RT @guggenheimbot: Pipe, Glass, Bottle of Vieux Marc by Pablo Picasso, 1914 #guggenheimart #schoolofparis https://t.co/m4XbyvDgox</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>['Glass', 'Bottle of Vieux Marc', 'Pablo Picasso', 'Pipe', 'guggenheimbot', 'guggenheimart', 'schoolofparis']</t>
+        </is>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:52:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>@WLKYJulie @WLKYMatt @Ale8One @WLKY What?!? And, you need one in a glass bottle, its better!</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.765711784362793</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>['WLKYJulie', 'WLKYMatt', 'Ale8One', 'glass bottle']</t>
+        </is>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:51:35</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> have a reminder once an hour to have a drink\n\n have a reusable bottle so you can save money while being healthy!\n\n drink a glass of water when you go to bed and when you wake up\n\n if youre hungry drink water first\n\n keep a bottle of water by your bed</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.8747937679290771</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>['bottle of water', 'youre hungry drink water', 'glass of water', 'bed', 'reusable bottle', 'money', 'hour', 'reminder']</t>
+        </is>
+      </c>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:47:52</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>A drink = a bottle of beer, a 6-oz glass of wine, a shot, a cocktail\n\n-ish</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>['shot', 'glass of wine', 'bottle of beer', 'drink', 'cocktail']</t>
+        </is>
+      </c>
+      <c r="K417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:47:18</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>@juryokuatsui "No~" He laughs, shielding the bottle from Chuuya as he pours. One glass goes to Chuuya, the other glass for himself. \n\n"I promise not all my annoying tendencies are on purpose.</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.1610442996025085</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>['Chuuya', 'glass', 'annoying tendencies', 'purpose', 'bottle', 'juryokuatsui']</t>
+        </is>
+      </c>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:44:01</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Schools out for summer! Were celebrating the holidays with a glass of fizz for parents everywhere. Use the code SHIMMER when you order a bottle of @simplyprincessp prosecco to get a free drink shimmer powder and add some shine to your celebratory bubbles https://t.co/R8hzcF4GkZ https://t.co/DUpUj4kju0</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.9715427756309509</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>['code SHIMMER', 'free drink shimmer powder', 'shine', 'simplyprincessp prosecco', 'bottle', 'glass of fizz', 'holidays', 'parents', 'celebratory bubbles', 'Schools']</t>
+        </is>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:44:00</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Can't open my juice so now am sitting looking at a nice cold glass bottle of irn bru</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>2</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.2034615874290466</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>['nice cold glass bottle of irn bru', 'juice']</t>
+        </is>
+      </c>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:43:41</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>@Singhisking3005 @filmibaaz @anandmahindra @izizibottles The same (IZIZI glass)bottle also has a wood based cap variant, as organic as it can get. https://t.co/qwlUM7K3EX</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.7447682023048401</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>['izizibottles', 'wood based cap variant', 'anandmahindra', 'IZIZI glass', 'Singhisking3005', 'filmibaaz']</t>
+        </is>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:39:43</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Color Bumb 3D\nHouse Paint\nOnPipe\nHappy Glass\nBottle Flip 3D\nTouch the Wall\nClean Road\nCrowd City\nMerge Plane</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>['nClean Road', 'nHouse Paint', 'Wall', 'nBottle Flip', 'nCrowd City', 'nTouch', 'Glass', 'nMerge Plane', 'Color Bumb']</t>
+        </is>
+      </c>
+      <c r="K422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:38:02</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>RT @TangHallExplore: @TangHallExplore until 12 noon (Wednesday 17th July) fill in a alcohol questionnaire and receive a free glass or water</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.7663374543190002</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>['TangHallExplore', 'free glass', 'alcohol questionnaire', 'water', 'RT', 'noon']</t>
+        </is>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:34:45</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>@ChaseTheFox2 Damm that glass bottle be ripped lol</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>1</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.2225423455238342</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>['ChaseTheFox2 Damm', 'glass bottle']</t>
+        </is>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:33:38</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>A quality crisp taste that does more than keep you hydrated, now available in a returnable glass bottle. \n#DasaniKE https://t.co/Gt9gUITOZ6</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.9590060710906982</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>['returnable glass bottle', 'quality crisp taste', 'DasaniKE']</t>
+        </is>
+      </c>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:32:30</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>@FukuharaAyaka @imas_cg_aryan @NEETwisdom @IdolmastrPicBot @obliquidens @NoFeetNoLife The only evidence of this drink is this low res image. I recall really liking this drink. Glass bottle too. https://t.co/pm2HnkXyyb</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.1920095384120941</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>['drink', 'cg', 'aryan', 'NEETwisdom', 'imas', 'IdolmastrPicBot', 'NoFeetNoLife', 'low res image', 'FukuharaAyaka', 'evidence']</t>
+        </is>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:32:02</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>#July2019 #Chester #DiningDeals \nStudent Offer @ChezJules \nSun  Thurs all day from 12pm\n22.50  2 courses and bottle of house wine \nOr\n9.95  Prix Fixe main course and glass of house wine or bottle of Kronenbourg\nDETAILS HERE;\nhttps://t.co/8ATVYmDill https://t.co/9uK7o9RGZO</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>['bottle of house wine', 'glass of house wine', 'bottle of Kronenbourg', 'Prix Fixe main course', 'nStudent Offer', 'DiningDeals', 'nSun', 'ChezJules', 'courses', 'day']</t>
+        </is>
+      </c>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:31:12</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>#myhome #homedesign #cute Creative Weather Forecast Bottle with Wooden/Glass Base https://t.co/kwiFhikkFR</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.9615117907524109</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr">
+        <is>
+          <t>['cute Creative Weather Forecast Bottle', 'homedesign', 'Glass Base', 'myhome']</t>
+        </is>
+      </c>
+      <c r="K428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:27:56</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>@ghostlyvapours "I\'m borrowing your hacker, Plan A. Plan B, the Ayame-Kai want their asset back, and for the sake of our business in the Asia-Pacific, I am inclined to be generous." He sets the bottle down, his glass abandoned as he turns back to the table. "Speaking of generosity, did the -&amp;gt;</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.2300197780132294</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>['Plan B', 'Ayame-Kai', 'business', 'sake', 'asset', 'hacker', 'Asia-Pacific', 'glass', 'gt', 'bottle']</t>
+        </is>
+      </c>
+      <c r="K429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:27:23</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Wai daman en SS3 neh suke rikichi harda su pasa glass din mota\nOmo that time highest thing we broke was bottle ghan</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>8</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.2701905965805054</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>['Wai daman en SS3 neh suke rikichi harda su pasa glass din mota', 'nOmo', 'time highest thing', 'ghan']</t>
+        </is>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:27:05</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Check out Biltmore Dairy Farms Vintage 1 Pint Glass Milk Bottle Embossed  Excellent Cond.  https://t.co/6ZeKL1vpZQ via @eBay</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>['Pint Glass Milk Bottle', 'Biltmore Dairy Farms Vintage', 'eBay']</t>
+        </is>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:25:17</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>RT @manoj_lala: @filmibaaz @anandmahindra The Mahindra Group actually used the IZiZi glass bottles at the annual Mahindra Rise awards funct</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>6</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.7455694079399109</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>['Mahindra Group', 'annual Mahindra Rise awards', 'IZiZi glass bottles', 'filmibaaz', 'lala', 'anandmahindra', 'manoj', 'RT']</t>
+        </is>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:24:26</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>RT @PattesonsSpirit: Nice little fact from @FriendsofGlass - We have also seen a rise in our #glass milk bottle supply, with over a 120% ri</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.8684788942337036</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>['Nice little fact', 'RT', 'PattesonsSpirit', 'glass milk bottle supply', 'rise', 'FriendsofGlass']</t>
+        </is>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:16:54</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>cold coke from can in fridge &amp;gt; cold coke in icy glass &amp;gt; cold coke from bottle &amp;gt; any coke that's not cold</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>['cold coke', 'gt', 'icy glass', 'bottle', 'fridge']</t>
+        </is>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:16:18</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>@TangHallExplore until 12 noon (Wednesday 17th July) fill in a alcohol questionnaire and receive a free glass or water bottle from @YorWellbeing. Theres lots of advice on healthy eating and lifestyle choices also expert support from @CityofYork and @cabyork. https://t.co/UQKynvPdKF</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>2</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.8045394420623779</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>['healthy eating', 'lifestyle choices', 'expert support', 'free glass', 'advice', 'water bottle', 'CityofYork', 'alcohol questionnaire', 'YorWellbeing', 'Theres']</t>
+        </is>
+      </c>
+      <c r="K435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:15:59</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>#DYK the energy saved from recycling an aluminium can would run a  for 2 hours! And energy saved from recycling a glass bottle would power a 100-watt  for 4 hours! #ReduceReuseRecycle #GreeningSMS</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>2</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.2904539406299591</v>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>['energy', 'hours', 'glass bottle', 'watt', 'ReduceReuseRecycle', 'GreeningSMS', 'DYK', 'aluminium']</t>
+        </is>
+      </c>
+      <c r="K436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:13:53</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Looking incredible @alliedglassUK is proud to present the first #goldenticket winner made using #recycled #glass #bottle. Read more at https://t.co/aj96BKtRhd https://t.co/ASn28e7dGn</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.9731241464614868</v>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr">
+        <is>
+          <t>['goldenticket winner', 'alliedglassUK', 'bottle']</t>
+        </is>
+      </c>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:12:25</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>RT @guggenheimbot: Pipe, Glass, Bottle of Vieux Marc by Pablo Picasso, 1914 #guggenheimart #schoolofparis https://t.co/m4XbyvDgox</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>['Glass', 'Bottle of Vieux Marc', 'Pablo Picasso', 'Pipe', 'guggenheimbot', 'guggenheimart', 'schoolofparis']</t>
+        </is>
+      </c>
+      <c r="K438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:11:21</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>RT @pablocubist: Bottle of bass, glass and package of tobacco, 1914 #picasso #syntheticcubism https://t.co/N71DfLbDqN</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>2</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>['Bottle of bass', 'package of tobacco', 'glass', 'pablocubist', 'picasso', 'RT', 'syntheticcubism']</t>
+        </is>
+      </c>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:11:05</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Ello Thrive BPA-Free Glass Tumbler Nautical Water Bottle - Bamboo Lid 20 oz  NWT #Ello https://t.co/CWb5TmmNVJ via @eBay</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>['Ello', 'BPA-Free Glass Tumbler Nautical Water Bottle - Bamboo Lid', 'NWT', 'eBay']</t>
+        </is>
+      </c>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:05:43</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>I await, with baited breath, the day I can purchase a glass bottle of milk and drink it whilst walking around town to finally complete my dream aesthetic.</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>3</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.8969193696975708</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>['day', 'glass bottle of milk', 'dream aesthetic', 'town', 'baited breath']</t>
+        </is>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:05:07</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>RT @OurCowMolly: There is a readily available alternative to bottled water being in single use plastic, this is a glass bottle of the fines</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>6</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.9173949956893921</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr">
+        <is>
+          <t>['bottled water', 'single use plastic', 'available alternative', 'glass bottle', 'OurCowMolly', 'fines', 'RT']</t>
+        </is>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2019-07-17 10:04:17</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@dulcepanda27ri @ELF2094 @SJofficial @shfly3424 Uuuf Chilean wine! Though you know? Mendoza,Argentina has also good reds!lol! Yet the only wine I really can drink(half a glass maybe) is Liebfraumilch its kinda sweet and it comes in a blue bottle </t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.8894372582435608</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr"/>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr">
+        <is>
+          <t>['shfly3424 Uuuf Chilean wine', 'SJofficial', 'ELF2094', 'Liebfraumilch', 'Mendoza', 'Argentina', 'good reds', 'dulcepanda27ri', 'half', 'glass']</t>
+        </is>
+      </c>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" t="n">
         <v>0</v>
       </c>
     </row>
